--- a/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.312675401580429</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-5.714426005685438</v>
+        <v>-5.714426005685441</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.9235290370558619</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.072872999832779</v>
+        <v>-6.604577787495888</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.702169702151489</v>
+        <v>-6.200244314644276</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.14008780492686</v>
+        <v>-9.913557779796287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.184291870263411</v>
+        <v>-2.887575281770074</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.710429907701416</v>
+        <v>-4.421119076490221</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.83582584036333</v>
+        <v>-11.46990144928893</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.038121135148083</v>
+        <v>-3.28534664109699</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.656090476018772</v>
+        <v>-4.31622915479449</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-9.866341464749526</v>
+        <v>-9.756739305270532</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.277124140872346</v>
+        <v>2.271658481543815</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.078468595649807</v>
+        <v>3.785268484387114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.064208975894391</v>
+        <v>-1.094745382531648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.828334684426182</v>
+        <v>4.623708814630495</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.279030760837499</v>
+        <v>4.050428061649328</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-4.973732569763392</v>
+        <v>-5.077704147646451</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.576934179974212</v>
+        <v>2.422624934140067</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.414359229238404</v>
+        <v>2.09769669740138</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.612139890337549</v>
+        <v>-4.377160543025498</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.06157283503888047</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2680429673370394</v>
+        <v>-0.2680429673370396</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.04057353882971097</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2622990419271526</v>
+        <v>-0.2801335842634148</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2430567690855618</v>
+        <v>-0.2744602209772749</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4350735970937462</v>
+        <v>-0.4309229450911452</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1300089236812232</v>
+        <v>-0.1168882362952025</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1968633070502874</v>
+        <v>-0.1885398456223889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4723457908661141</v>
+        <v>-0.4681369897150284</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1279978111228964</v>
+        <v>-0.1331109587646279</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1613440110959906</v>
+        <v>-0.1814932261861728</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4141481528241733</v>
+        <v>-0.415975914418081</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1197666793256595</v>
+        <v>0.1154642826874576</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1572768160210106</v>
+        <v>0.2005195615109024</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.05266870092237824</v>
+        <v>-0.05686073346553674</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2268704499268706</v>
+        <v>0.2203815494473526</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1504858138849239</v>
+        <v>0.192435354674786</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.239314906868452</v>
+        <v>-0.2380322377733123</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1240131523164747</v>
+        <v>0.1170918949877871</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1179466373680001</v>
+        <v>0.1039088350100187</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2243379531303121</v>
+        <v>-0.2103630449172671</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.606504495129473</v>
+        <v>-7.378562415177798</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.64306654980126</v>
+        <v>-10.80099332923126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-20.00326691071991</v>
+        <v>-20.20398839630442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.00200668760314</v>
+        <v>-9.136140572409348</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-13.22745229987121</v>
+        <v>-13.42648786567227</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-22.54962512529225</v>
+        <v>-22.29900309602668</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.760532449593662</v>
+        <v>-6.876772058153885</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.08007093041023</v>
+        <v>-10.9093602055311</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-20.32694806186035</v>
+        <v>-20.43050276606856</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5667758188058573</v>
+        <v>0.1142307539000513</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.725206608634703</v>
+        <v>-3.849632482284885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-13.16054666075522</v>
+        <v>-13.29784172459</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.002134817200937</v>
+        <v>-2.120603346021376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-6.42057531449241</v>
+        <v>-6.398503245935151</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-16.2799533389836</v>
+        <v>-16.23039837250974</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.627573543959997</v>
+        <v>-1.83225050305101</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-6.09198395539049</v>
+        <v>-5.858980368120162</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-15.71707454131722</v>
+        <v>-15.7561349858663</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2524493664808002</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.5012863648802639</v>
+        <v>-0.5012863648802638</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1105491558610217</v>
@@ -983,7 +983,7 @@
         <v>-0.2242350448202242</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.4713646991355645</v>
+        <v>-0.4713646991355646</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1679048386563692</v>
+        <v>-0.1820853467049904</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2697296666204182</v>
+        <v>-0.2712517055555877</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5054475269721573</v>
+        <v>-0.5081716215975586</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2237387015591041</v>
+        <v>-0.2241037152851507</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3229488124064031</v>
+        <v>-0.3278669338722049</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5524873879139396</v>
+        <v>-0.5508037638226603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1690894748203065</v>
+        <v>-0.1716814835763657</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2777016761684334</v>
+        <v>-0.2742265252729502</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.512120413478822</v>
+        <v>-0.5112992656821117</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0160004443526278</v>
+        <v>0.003639577846255997</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1057460619436575</v>
+        <v>-0.1010861034651741</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3677262953161005</v>
+        <v>-0.3693560526841898</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.0543001879001859</v>
+        <v>-0.05829944591107364</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.173526082962481</v>
+        <v>-0.1713600432752547</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4443792058617804</v>
+        <v>-0.4445526304911048</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04432386065053007</v>
+        <v>-0.05025365636886288</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1602023588532527</v>
+        <v>-0.1568304433444616</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4256175287519528</v>
+        <v>-0.4250699350917239</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-8.029799184526649</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-13.78484869350623</v>
+        <v>-13.78484869350624</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.452597842755108</v>
+        <v>-5.799416753054985</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.8659171713923</v>
+        <v>-12.57622476392335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-21.33773266448882</v>
+        <v>-21.51212470572917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.37781283675123</v>
+        <v>-11.5685645851667</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-15.91656222037651</v>
+        <v>-15.92824090433368</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-18.33167200927312</v>
+        <v>-17.83944694639019</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.707356351376164</v>
+        <v>-7.503234362432383</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-12.93257667222223</v>
+        <v>-11.93435806779878</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-17.64223115590846</v>
+        <v>-17.54162392297373</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.912001834968135</v>
+        <v>6.364096880857197</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2916214626866705</v>
+        <v>-0.1667852979393593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.04462295822596</v>
+        <v>-10.40969622913521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.183968604307077</v>
+        <v>1.442150739322229</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.006619985568608</v>
+        <v>-3.89840745673314</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-6.983452771694715</v>
+        <v>-6.578415545095033</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.191848942532431</v>
+        <v>1.874388857917055</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.099286566387337</v>
+        <v>-3.825250060886721</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-10.22866487683947</v>
+        <v>-9.970274411633339</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2539878562823662</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4360238766104108</v>
+        <v>-0.4360238766104109</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1600267035954153</v>
+        <v>-0.171283467049291</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3626589933087935</v>
+        <v>-0.3569146831331624</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6114366479780711</v>
+        <v>-0.605457660491503</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3215061442278595</v>
+        <v>-0.3324533633005441</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4585245150094382</v>
+        <v>-0.4485377905852849</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5042723936680011</v>
+        <v>-0.4967091495401879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1973397014031188</v>
+        <v>-0.2171646516304963</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3737867871257293</v>
+        <v>-0.3544276916117354</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5180195124068754</v>
+        <v>-0.513279592919673</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2490526571974842</v>
+        <v>0.2191221161170602</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.007454286052147991</v>
+        <v>0.001186067633391327</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3629495139039186</v>
+        <v>-0.3577370737392066</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.04925195080372297</v>
+        <v>0.0485903755890693</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1395243036062917</v>
+        <v>-0.1326065051100604</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.24701359564572</v>
+        <v>-0.2342907411436924</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07398853129994293</v>
+        <v>0.0670268042854569</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1339583243341657</v>
+        <v>-0.1255648163916102</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3527833366156725</v>
+        <v>-0.343774112975498</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.267538334567529</v>
+        <v>-4.431582871707169</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.983023722930505</v>
+        <v>-6.99890031810947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.09008646065666</v>
+        <v>-15.34137982560017</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.399542891362</v>
+        <v>-5.628962927153859</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.294086021974037</v>
+        <v>-8.042183772909759</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-16.09288944864601</v>
+        <v>-15.85883352285676</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.239105069724531</v>
+        <v>-4.363956453915558</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.860266120650279</v>
+        <v>-7.01741520977076</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-14.78942968823148</v>
+        <v>-14.91759582096762</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9136753534957951</v>
+        <v>0.8175288028305661</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.683402252833054</v>
+        <v>-1.715770189113987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-10.16998626527928</v>
+        <v>-10.37511504423036</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.7076243861444166</v>
+        <v>-0.7093515747474923</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.189254860132837</v>
+        <v>-3.194718205644496</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-11.68751194266848</v>
+        <v>-11.82439726424362</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.8297291828246293</v>
+        <v>-0.7733968050414013</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.360827845513383</v>
+        <v>-3.516762636111525</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-11.62020474692489</v>
+        <v>-11.79540004930377</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1825548350989999</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4282863924722285</v>
+        <v>-0.4282863924722287</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.07823218700788544</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1298802231477041</v>
+        <v>-0.1325113438436704</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2115037980931414</v>
+        <v>-0.2120127238616745</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4562718268453265</v>
+        <v>-0.4598789404902186</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1619256855646284</v>
+        <v>-0.1664264482133115</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2494126935705482</v>
+        <v>-0.2409250166721988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4751121570604708</v>
+        <v>-0.4767610525773029</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1279030701934147</v>
+        <v>-0.1325626317790578</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2100731522355761</v>
+        <v>-0.2113742402996618</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4505748498421777</v>
+        <v>-0.4535451188723447</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02831690179875849</v>
+        <v>0.02708651235515341</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.05558953107920257</v>
+        <v>-0.05757638411444777</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3335917090762154</v>
+        <v>-0.338707682015278</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.02320747160101059</v>
+        <v>-0.02198191201151393</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.104504025871511</v>
+        <v>-0.1016540975582469</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3773288835812615</v>
+        <v>-0.3811103435110759</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.02599139043734858</v>
+        <v>-0.02598256471549759</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1080721471103929</v>
+        <v>-0.1127074107151736</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3724083883350303</v>
+        <v>-0.377639132786918</v>
       </c>
     </row>
     <row r="28">
